--- a/data/trans_dic/P12A1_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación 16-59 años</t>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,06; 65,71</t>
+          <t>3,78; 11,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,97; 60,29</t>
+          <t>3,1; 10,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,78; 56,98</t>
+          <t>2,2; 8,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,8; 53,9</t>
+          <t>3,3; 12,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 41,14</t>
+          <t>2,35; 8,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 53,21</t>
+          <t>1,84; 7,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,25; 52,61</t>
+          <t>2,34; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,74; 47,06</t>
+          <t>4,6; 12,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,85; 51,51</t>
+          <t>3,66; 8,67</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 7,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 7,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 10,82</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>63,66%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,91%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,22%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,91; 69,06</t>
+          <t>5,87; 17,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,22; 78,15</t>
+          <t>8,08; 20,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,55; 73,88</t>
+          <t>5,1; 14,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,81; 62,71</t>
+          <t>5,81; 17,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,94; 67,99</t>
+          <t>4,77; 13,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,37; 75,36</t>
+          <t>3,99; 11,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,01; 61,03</t>
+          <t>5,39; 14,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,07; 67,64</t>
+          <t>5,32; 14,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 70,43</t>
+          <t>6,38; 13,41</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 14,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 12,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 13,52</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 60,59</t>
+          <t>0,0; 21,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 100,0</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 100,0</t>
+          <t>2,4; 20,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 64,16</t>
+          <t>0,0; 15,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 51,63</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 57,65</t>
+          <t>0,0; 5,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 10,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 15,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 9,66</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,39%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,33; 58,3</t>
+          <t>4,79; 10,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 57,21</t>
+          <t>5,71; 12,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 55,86</t>
+          <t>4,36; 9,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,71; 54,02</t>
+          <t>4,74; 11,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,77; 52,26</t>
+          <t>3,99; 8,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,22; 62,31</t>
+          <t>3,44; 7,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,88; 52,41</t>
+          <t>4,47; 9,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 51,94</t>
+          <t>5,83; 10,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 55,86</t>
+          <t>5,07; 8,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 8,99</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 8,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación 16-59 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29354</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21662</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17357</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35349</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24076</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16026</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19555</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43950</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53430</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37687</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>36912</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79300</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16266; 49195</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11361; 38906</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8362; 30660</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16959; 63703</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11950; 41888</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7753; 29959</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9515; 34423</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25597; 67883</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34395; 81364</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22690; 59720</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22774; 58091</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>50389; 115754</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38229</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43573</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28429</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40171</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>36410</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24190</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31689</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>39482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>74639</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>67763</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60118</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>79653</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21109; 62457</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25716; 65340</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16464; 47825</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23636; 70176</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20281; 57635</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13519; 39867</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18054; 49094</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23043; 61454</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>50039; 105210</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>46799; 95355</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>42340; 84654</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54038; 113509</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5753</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6095</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9254</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18534</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18141</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12759</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1954; 16405</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12627</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13046</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11004</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1807; 16542</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3130; 25871</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1765; 22292</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67582</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65235</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51539</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>78321</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62811</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46311</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>54744</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>87475</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>130393</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>111546</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>106283</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165796</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42730; 95490</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>43636; 92604</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34436; 73418</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>49256; 116478</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41284; 88431</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28941; 65967</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36872; 76686</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64194; 117824</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>97702; 166812</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>82837; 144382</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>80826; 138528</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128097; 218019</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
